--- a/week1/Tashrif Radin Ali - Timesheet.xlsx
+++ b/week1/Tashrif Radin Ali - Timesheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\radin\OneDrive\Desktop\uni\intro to web\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\radin\OneDrive\Desktop\uni\http5110\http5110\week1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{21437BE1-45F4-42FE-94F0-3F35FCC2E868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0317337A-4188-4423-97C2-BC4A251425FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" xr2:uid="{EF47F5A3-54E5-4EA6-8B06-91BA05D4822B}"/>
   </bookViews>
@@ -20,22 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="23">
   <si>
     <t>Tashrif Radin Ali</t>
   </si>
@@ -68,6 +58,42 @@
   </si>
   <si>
     <t xml:space="preserve">HTTP 5125 (lecture) </t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Week 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HTTP 5121 (lecture) </t>
+  </si>
+  <si>
+    <t>Lab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HTTP 5122 (lecture) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HTTP 5114 (lecture) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IDX 5106 (lecture) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HTTP 5126 (lecture) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Project </t>
+  </si>
+  <si>
+    <t>Project for IXD 5106</t>
+  </si>
+  <si>
+    <t>Project for HTTP 5114</t>
+  </si>
+  <si>
+    <t>Week3</t>
   </si>
 </sst>
 </file>
@@ -90,6 +116,8 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <u/>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -140,8 +168,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4B218DE6-71D1-4EFE-990E-9BE3E8240E29}" name="Table1" displayName="Table1" ref="A3:C7" totalsRowShown="0">
-  <autoFilter ref="A3:C7" xr:uid="{4B218DE6-71D1-4EFE-990E-9BE3E8240E29}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4B218DE6-71D1-4EFE-990E-9BE3E8240E29}" name="Table1" displayName="Table1" ref="A3:C8" totalsRowShown="0">
+  <autoFilter ref="A3:C8" xr:uid="{4B218DE6-71D1-4EFE-990E-9BE3E8240E29}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -155,17 +183,109 @@
 </table>
 </file>
 
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{E5B6339E-C944-48B8-86BB-8C45B57F94F5}" name="Table143567891213" displayName="Table143567891213" ref="A74:C80" totalsRowShown="0">
+  <autoFilter ref="A74:C80" xr:uid="{E5B6339E-C944-48B8-86BB-8C45B57F94F5}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{5A80C4A6-4BE2-4F00-803C-C3A5B4D7C2DA}" name=" Project "/>
+    <tableColumn id="2" xr3:uid="{67B6C221-CEF8-4FAD-B4E2-4F7936D6FFE7}" name="Column1"/>
+    <tableColumn id="3" xr3:uid="{0EAA1CBD-8479-4AD3-9CD9-CD880D63F611}" name="Column2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8D235007-4504-4A85-9B43-45D44E63A874}" name="Table14" displayName="Table14" ref="A9:C13" totalsRowShown="0">
-  <autoFilter ref="A9:C13" xr:uid="{8D235007-4504-4A85-9B43-45D44E63A874}">
-    <filterColumn colId="0" hiddenButton="1"/>
-    <filterColumn colId="1" hiddenButton="1"/>
-    <filterColumn colId="2" hiddenButton="1"/>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{CE029326-FBDF-4CC9-A2D2-4E4002B63A7D}" name="Table1435" displayName="Table1435" ref="A10:C15" totalsRowShown="0">
+  <autoFilter ref="A10:C15" xr:uid="{CE029326-FBDF-4CC9-A2D2-4E4002B63A7D}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{A69D5C14-D84D-4667-BDBD-9CCE650A8B5B}" name="HTTP 5125 (lecture) "/>
-    <tableColumn id="2" xr3:uid="{5A5FCBAA-E386-4146-9F30-782E2B32FC5F}" name="Column1"/>
-    <tableColumn id="3" xr3:uid="{D35C464E-A55E-4417-A722-1C860C73DCF8}" name="Column2"/>
+    <tableColumn id="1" xr3:uid="{D781C611-959B-455B-A39C-7A8787DB4DDD}" name="HTTP 5125 (lecture) "/>
+    <tableColumn id="2" xr3:uid="{5C17E3ED-A69F-4496-BA59-22A6A17CDD25}" name="Column1"/>
+    <tableColumn id="3" xr3:uid="{257D40DC-9D13-4E27-8124-484006575C0E}" name="Column2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{1B1614D4-E1FE-40EA-A8A3-AF18E1A9B913}" name="Table14356" displayName="Table14356" ref="A18:C24" totalsRowShown="0">
+  <autoFilter ref="A18:C24" xr:uid="{1B1614D4-E1FE-40EA-A8A3-AF18E1A9B913}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{2C7D8C09-14CB-4E3F-AA0F-27D0C3E767D1}" name="HTTP 5121 (lecture) "/>
+    <tableColumn id="2" xr3:uid="{7863C21F-274F-4D27-BF00-8DF923545C50}" name="Column1"/>
+    <tableColumn id="3" xr3:uid="{5DDE5893-4C62-4356-A9B7-0D5E6A501832}" name="Column2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{81422104-DD07-43C0-90F6-329A01F63A7A}" name="Table143567" displayName="Table143567" ref="A26:C32" totalsRowShown="0">
+  <autoFilter ref="A26:C32" xr:uid="{81422104-DD07-43C0-90F6-329A01F63A7A}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{77399FCC-9304-493F-9F9D-8C38B47B44A1}" name="HTTP 5122 (lecture) "/>
+    <tableColumn id="2" xr3:uid="{FFC7A7B0-3631-4D5F-B937-062CF3C5369A}" name="Column1"/>
+    <tableColumn id="3" xr3:uid="{D07CED9C-C22C-496E-8E2C-AA83F0FD37F9}" name="Column2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{2FF8CA02-339B-4B6A-AFAB-F6E94BE74DCF}" name="Table1435678" displayName="Table1435678" ref="A34:C40" totalsRowShown="0">
+  <autoFilter ref="A34:C40" xr:uid="{2FF8CA02-339B-4B6A-AFAB-F6E94BE74DCF}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{9ABCFE8A-D36B-469E-8D51-913F0C0FD0B7}" name="HTTP 5114 (lecture) "/>
+    <tableColumn id="2" xr3:uid="{277BACDB-1731-49D4-BCCF-4B7EF91681BF}" name="Column1"/>
+    <tableColumn id="3" xr3:uid="{6D7385BC-64B8-42AB-B6A2-8734F5CF91F8}" name="Column2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{0CFA4C59-0832-482C-897F-3A7A25F38C39}" name="Table14356789" displayName="Table14356789" ref="A42:C48" totalsRowShown="0">
+  <autoFilter ref="A42:C48" xr:uid="{0CFA4C59-0832-482C-897F-3A7A25F38C39}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{77AA8AE0-B683-4F79-8B82-0AE458B9CE45}" name="IDX 5106 (lecture) "/>
+    <tableColumn id="2" xr3:uid="{4A84524F-408C-4047-A424-6F1C8DFC5069}" name="Column1"/>
+    <tableColumn id="3" xr3:uid="{E2AC3C0A-719C-4024-A2CB-418CF1BA19C0}" name="Column2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{F3FDDF36-F3FC-47C4-A137-691DACA2529D}" name="Table14356710" displayName="Table14356710" ref="A50:C56" totalsRowShown="0">
+  <autoFilter ref="A50:C56" xr:uid="{F3FDDF36-F3FC-47C4-A137-691DACA2529D}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{7124237D-BB7E-4211-9730-F66C9B4C01B7}" name="HTTP 5126 (lecture) "/>
+    <tableColumn id="2" xr3:uid="{ED0345A8-7BDB-4AC2-85A7-4380FBC6195D}" name="Column1"/>
+    <tableColumn id="3" xr3:uid="{4A861037-381C-4EAA-9758-9321536C174A}" name="Column2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{D781C182-39FD-4214-8205-31F499C840C7}" name="Table1435671011" displayName="Table1435671011" ref="A58:C64" totalsRowShown="0">
+  <autoFilter ref="A58:C64" xr:uid="{D781C182-39FD-4214-8205-31F499C840C7}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{88A01942-36EF-493B-BA91-BB2039C4FF99}" name="HTTP 5110 (lecture) "/>
+    <tableColumn id="2" xr3:uid="{66319AEC-0271-4BBB-8C6B-26E79753F0DF}" name="Column1"/>
+    <tableColumn id="3" xr3:uid="{85899536-07AE-4E98-A15D-342B115714A3}" name="Column2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{D724BE60-8528-4133-9E71-C9FA90EA70E9}" name="Table1435678912" displayName="Table1435678912" ref="A66:C72" totalsRowShown="0">
+  <autoFilter ref="A66:C72" xr:uid="{D724BE60-8528-4133-9E71-C9FA90EA70E9}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{37C2CE74-ABF3-49A2-9126-6AD92D317C0B}" name="HTTP 5125 (lecture) "/>
+    <tableColumn id="2" xr3:uid="{D6B4818E-68A7-47EC-9EB8-053FD834323D}" name="Column1"/>
+    <tableColumn id="3" xr3:uid="{2E359402-14F7-494F-8D3A-E0A520CE0576}" name="Column2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -468,15 +588,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA21D4F1-CCCF-483C-B1B0-4A0D46EA6207}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A83" sqref="A83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.90625" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="10.26953125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -522,56 +642,524 @@
         <v>4</v>
       </c>
       <c r="B7" s="1">
-        <v>45421</v>
+        <v>45540</v>
       </c>
       <c r="C7">
-        <v>2.75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>6</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B10" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
         <v>2</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="1">
-        <v>45421</v>
-      </c>
-      <c r="C13">
-        <v>2.75</v>
+      <c r="B14" s="1">
+        <v>45540</v>
+      </c>
+      <c r="C14">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A17" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="1">
+        <v>45544</v>
+      </c>
+      <c r="C22">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="1">
+        <v>45544</v>
+      </c>
+      <c r="C30">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" s="1">
+        <v>45545</v>
+      </c>
+      <c r="C38">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B39" s="1"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40" s="1"/>
+      <c r="C40">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>17</v>
+      </c>
+      <c r="B42" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B43" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>1</v>
+      </c>
+      <c r="B44" t="s">
+        <v>2</v>
+      </c>
+      <c r="C44" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46" s="1">
+        <v>45546</v>
+      </c>
+      <c r="C46">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B47" s="1"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>11</v>
+      </c>
+      <c r="B48" s="1"/>
+      <c r="C48">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>18</v>
+      </c>
+      <c r="B50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B51" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>1</v>
+      </c>
+      <c r="B52" t="s">
+        <v>2</v>
+      </c>
+      <c r="C52" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>4</v>
+      </c>
+      <c r="B54" s="1">
+        <v>45546</v>
+      </c>
+      <c r="C54">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>14</v>
+      </c>
+      <c r="B55" s="1"/>
+      <c r="C55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>11</v>
+      </c>
+      <c r="B56" s="1"/>
+      <c r="C56">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>8</v>
+      </c>
+      <c r="B58" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B59" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>1</v>
+      </c>
+      <c r="B60" t="s">
+        <v>2</v>
+      </c>
+      <c r="C60" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>4</v>
+      </c>
+      <c r="B62" s="1">
+        <v>45547</v>
+      </c>
+      <c r="C62">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>14</v>
+      </c>
+      <c r="B63" s="1"/>
+      <c r="C63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>11</v>
+      </c>
+      <c r="B64" s="1"/>
+      <c r="C64">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>10</v>
+      </c>
+      <c r="B66" t="s">
+        <v>6</v>
+      </c>
+      <c r="C66" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B67" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>1</v>
+      </c>
+      <c r="B68" t="s">
+        <v>2</v>
+      </c>
+      <c r="C68" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>4</v>
+      </c>
+      <c r="B70" s="1">
+        <v>45548</v>
+      </c>
+      <c r="C70">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B71" s="1"/>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>11</v>
+      </c>
+      <c r="B72" s="1"/>
+      <c r="C72">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>19</v>
+      </c>
+      <c r="B74" t="s">
+        <v>6</v>
+      </c>
+      <c r="C74" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B75" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>1</v>
+      </c>
+      <c r="B76" t="s">
+        <v>2</v>
+      </c>
+      <c r="C76" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>20</v>
+      </c>
+      <c r="B78" s="1">
+        <v>45549</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>21</v>
+      </c>
+      <c r="B79" s="1">
+        <v>45549</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>11</v>
+      </c>
+      <c r="B80" s="1"/>
+      <c r="C80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A82" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <tableParts count="2">
+  <tableParts count="10">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId8"/>
+    <tablePart r:id="rId9"/>
+    <tablePart r:id="rId10"/>
+    <tablePart r:id="rId11"/>
   </tableParts>
 </worksheet>
 </file>